--- a/数据整理/stocks/A股/科创板/688776-国光电气.xlsx
+++ b/数据整理/stocks/A股/科创板/688776-国光电气.xlsx
@@ -1,138 +1,51 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
-  <workbookPr defaultThemeVersion="124226"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="2021-Q3" sheetId="1" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
+  <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="29">
-  <si>
-    <t>基金代码</t>
-  </si>
-  <si>
-    <t>基金名称</t>
-  </si>
-  <si>
-    <t>基金金额</t>
-  </si>
-  <si>
-    <t>股票总仓位</t>
-  </si>
-  <si>
-    <t>仓位占比</t>
-  </si>
-  <si>
-    <t>持有市值(亿元)</t>
-  </si>
-  <si>
-    <t>仓位排名</t>
-  </si>
-  <si>
-    <t>009932</t>
-  </si>
-  <si>
-    <t>012442</t>
-  </si>
-  <si>
-    <t>001150</t>
-  </si>
-  <si>
-    <t>010560</t>
-  </si>
-  <si>
-    <t>013595</t>
-  </si>
-  <si>
-    <t>永赢稳健增长一年持有期混合</t>
-  </si>
-  <si>
-    <t>永赢稳健增长一年持有期混合E</t>
-  </si>
-  <si>
-    <t>融通互联网传媒灵活配置混合</t>
-  </si>
-  <si>
-    <t>永赢稳健增利18个月持有期混合</t>
-  </si>
-  <si>
-    <t>永赢稳健增利18个月持有期混合E</t>
-  </si>
-  <si>
-    <t>23.62</t>
-  </si>
-  <si>
-    <t>11.82</t>
-  </si>
-  <si>
-    <t>5.25</t>
-  </si>
-  <si>
-    <t>24.47</t>
-  </si>
-  <si>
-    <t>90.73</t>
-  </si>
-  <si>
-    <t>22.28</t>
-  </si>
-  <si>
-    <t>1.25</t>
-  </si>
-  <si>
-    <t>2.24</t>
-  </si>
-  <si>
-    <t>1.20</t>
-  </si>
-  <si>
-    <t>0.2952</t>
-  </si>
-  <si>
-    <t>0.2648</t>
-  </si>
-  <si>
-    <t>0.0630</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+  <numFmts count="0"/>
+  <fonts count="3">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <b val="1"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -155,21 +68,97 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+  <cellXfs count="3">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -457,167 +446,299 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:H6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
-      <c r="B1" s="1" t="s">
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>009932</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>永赢稳健增长一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>23.62</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>24.47</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>1.25</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.2952</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>012442</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>永赢稳健增长一年持有期混合E</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>23.62</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>24.47</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>1.25</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.2952</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>001150</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>融通互联网传媒灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>11.82</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>90.73</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.24</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.2648</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>010560</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>永赢稳健增利18个月持有期混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>5.25</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>22.28</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>1.20</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0630</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="G1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D2" t="s">
-        <v>17</v>
-      </c>
-      <c r="E2" t="s">
-        <v>20</v>
-      </c>
-      <c r="F2" t="s">
-        <v>23</v>
-      </c>
-      <c r="G2" t="s">
-        <v>26</v>
-      </c>
-      <c r="H2">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
-      <c r="A3" s="1">
-        <v>1</v>
-      </c>
-      <c r="B3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D3" t="s">
-        <v>17</v>
-      </c>
-      <c r="E3" t="s">
-        <v>20</v>
-      </c>
-      <c r="F3" t="s">
-        <v>23</v>
-      </c>
-      <c r="G3" t="s">
-        <v>26</v>
-      </c>
-      <c r="H3">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
-      <c r="A4" s="1">
-        <v>2</v>
-      </c>
-      <c r="B4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D4" t="s">
-        <v>18</v>
-      </c>
-      <c r="E4" t="s">
-        <v>21</v>
-      </c>
-      <c r="F4" t="s">
-        <v>24</v>
-      </c>
-      <c r="G4" t="s">
-        <v>27</v>
-      </c>
-      <c r="H4">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
-      <c r="A5" s="1">
-        <v>3</v>
-      </c>
-      <c r="B5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C5" t="s">
-        <v>15</v>
-      </c>
-      <c r="D5" t="s">
-        <v>19</v>
-      </c>
-      <c r="E5" t="s">
-        <v>22</v>
-      </c>
-      <c r="F5" t="s">
-        <v>25</v>
-      </c>
-      <c r="G5" t="s">
-        <v>28</v>
-      </c>
-      <c r="H5">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
-      <c r="A6" s="1">
-        <v>4</v>
-      </c>
-      <c r="B6" t="s">
-        <v>11</v>
-      </c>
-      <c r="C6" t="s">
-        <v>16</v>
-      </c>
-      <c r="D6" t="s">
-        <v>19</v>
-      </c>
-      <c r="E6" t="s">
-        <v>22</v>
-      </c>
-      <c r="F6" t="s">
-        <v>25</v>
-      </c>
-      <c r="G6" t="s">
-        <v>28</v>
-      </c>
-      <c r="H6">
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>013595</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>永赢稳健增利18个月持有期混合E</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>5.25</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>22.28</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>1.20</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0630</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
         <v>5</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>5</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.98</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/科创板/688776-国光电气.xlsx
+++ b/数据整理/stocks/A股/科创板/688776-国光电气.xlsx
@@ -7,7 +7,8 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -697,7 +698,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -708,17 +709,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -728,13 +749,217 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>012442</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>永赢稳健增长一年持有期混合E</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>12.47</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>27.76</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.78</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.3467</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>009932</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>永赢稳健增长一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>12.47</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>27.76</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.78</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.3467</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>010560</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>永赢稳健增利18个月持有期混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>5.34</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>21.59</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.56</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1367</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>013595</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>永赢稳健增利18个月持有期混合E</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>5.07</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>21.59</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.56</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1298</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>4</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.96</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
           <t>2021-Q3</t>
         </is>
       </c>
-      <c r="C2" t="n">
+      <c r="C3" t="n">
         <v>5</v>
       </c>
-      <c r="D2" t="n">
+      <c r="D3" t="n">
         <v>0.98</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/科创板/688776-国光电气.xlsx
+++ b/数据整理/stocks/A股/科创板/688776-国光电气.xlsx
@@ -8,7 +8,8 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -906,7 +907,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -917,17 +918,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -937,14 +958,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>4</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.96</v>
+          <t>012442</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>永赢稳健增长一年持有期混合E</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>22.52</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>22.68</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.31</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.5202</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="3">
@@ -953,13 +996,119 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
+          <t>009932</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>永赢稳健增长一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>22.52</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>22.68</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.31</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.5202</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>2</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1.04</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>4</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.96</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
           <t>2021-Q3</t>
         </is>
       </c>
-      <c r="C3" t="n">
+      <c r="C4" t="n">
         <v>5</v>
       </c>
-      <c r="D3" t="n">
+      <c r="D4" t="n">
         <v>0.98</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/科创板/688776-国光电气.xlsx
+++ b/数据整理/stocks/A股/科创板/688776-国光电气.xlsx
@@ -9,7 +9,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1039,7 +1040,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1050,17 +1051,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1070,14 +1091,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>2</v>
-      </c>
-      <c r="D2" t="n">
-        <v>1.04</v>
+          <t>009932</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>永赢稳健增长一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>21.48</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>24.65</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>1.85</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.3974</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="3">
@@ -1086,14 +1129,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>4</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.96</v>
+          <t>012442</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>永赢稳健增长一年持有期混合E</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>21.48</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>24.65</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>1.85</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.3974</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="4">
@@ -1102,13 +1167,173 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
+          <t>008961</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>华商科技创新混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>2.95</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>92.51</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.90</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0856</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>006084</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>融通研究优选混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>89.69</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.62</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0018</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>4</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.88</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>2</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1.04</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>4</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.96</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
           <t>2021-Q3</t>
         </is>
       </c>
-      <c r="C4" t="n">
+      <c r="C5" t="n">
         <v>5</v>
       </c>
-      <c r="D4" t="n">
+      <c r="D5" t="n">
         <v>0.98</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/科创板/688776-国光电气.xlsx
+++ b/数据整理/stocks/A股/科创板/688776-国光电气.xlsx
@@ -6,11 +6,11 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -454,243 +454,97 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H6"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
         <is>
           <t>持有市值(亿元)</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="n">
+      <c r="A2" s="2" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>009932</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>永赢稳健增长一年持有期混合</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>23.62</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>24.47</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>1.25</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.2952</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
         <v>4</v>
       </c>
+      <c r="D2" t="n">
+        <v>0.88</v>
+      </c>
     </row>
     <row r="3">
-      <c r="A3" s="1" t="n">
+      <c r="A3" s="2" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>012442</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>永赢稳健增长一年持有期混合E</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>23.62</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>24.47</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>1.25</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.2952</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>2</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1.04</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
         <v>4</v>
       </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>001150</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>融通互联网传媒灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>11.82</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>90.73</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>2.24</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.2648</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>10</v>
+      <c r="D4" t="n">
+        <v>0.96</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="1" t="n">
+      <c r="A5" s="2" t="n">
         <v>3</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>010560</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>永赢稳健增利18个月持有期混合</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>5.25</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>22.28</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>1.20</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.0630</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
         <v>5</v>
       </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>013595</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>永赢稳健增利18个月持有期混合E</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>5.25</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>22.28</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>1.20</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.0630</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>5</v>
+      <c r="D5" t="n">
+        <v>0.98</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
@@ -751,36 +605,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>012442</t>
+          <t>009932</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>永赢稳健增长一年持有期混合E</t>
+          <t>永赢稳健增长一年持有期混合</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>12.47</t>
+          <t>21.48</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>27.76</t>
+          <t>24.65</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>2.78</t>
+          <t>1.85</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.3467</t>
+          <t>0.3974</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3">
@@ -789,36 +643,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>009932</t>
+          <t>012442</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>永赢稳健增长一年持有期混合</t>
+          <t>永赢稳健增长一年持有期混合E</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>12.47</t>
+          <t>21.48</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>27.76</t>
+          <t>24.65</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>2.78</t>
+          <t>1.85</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.3467</t>
+          <t>0.3974</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4">
@@ -827,36 +681,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>010560</t>
+          <t>008961</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>永赢稳健增利18个月持有期混合</t>
+          <t>华商科技创新混合</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>5.34</t>
+          <t>2.95</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>21.59</t>
+          <t>92.51</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>2.56</t>
+          <t>2.90</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.1367</t>
+          <t>0.0856</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>3</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5">
@@ -865,36 +719,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>013595</t>
+          <t>006084</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>永赢稳健增利18个月持有期混合E</t>
+          <t>融通研究优选混合</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>5.07</t>
+          <t>0.07</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>21.59</t>
+          <t>89.69</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>2.56</t>
+          <t>2.62</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.1298</t>
+          <t>0.0018</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>3</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -1091,36 +945,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>009932</t>
+          <t>012442</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>永赢稳健增长一年持有期混合</t>
+          <t>永赢稳健增长一年持有期混合E</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>21.48</t>
+          <t>12.47</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>24.65</t>
+          <t>27.76</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>1.85</t>
+          <t>2.78</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.3974</t>
+          <t>0.3467</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3">
@@ -1129,36 +983,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>012442</t>
+          <t>009932</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>永赢稳健增长一年持有期混合E</t>
+          <t>永赢稳健增长一年持有期混合</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>21.48</t>
+          <t>12.47</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>24.65</t>
+          <t>27.76</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>1.85</t>
+          <t>2.78</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.3974</t>
+          <t>0.3467</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4">
@@ -1167,36 +1021,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>008961</t>
+          <t>010560</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>华商科技创新混合</t>
+          <t>永赢稳健增利18个月持有期混合</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>2.95</t>
+          <t>5.34</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>92.51</t>
+          <t>21.59</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>2.90</t>
+          <t>2.56</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.0856</t>
+          <t>0.1367</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>10</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5">
@@ -1205,36 +1059,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>006084</t>
+          <t>013595</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>融通研究优选混合</t>
+          <t>永赢稳健增利18个月持有期混合E</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>0.07</t>
+          <t>5.07</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>89.69</t>
+          <t>21.59</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>2.62</t>
+          <t>2.56</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.0018</t>
+          <t>0.1298</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>10</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -1248,96 +1102,242 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>日期</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>持有数量(只)</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>持有市值(亿元)</t>
         </is>
       </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="n">
+      <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
+          <t>009932</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>永赢稳健增长一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>23.62</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>24.47</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>1.25</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.2952</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
         <v>4</v>
       </c>
-      <c r="D2" t="n">
-        <v>0.88</v>
-      </c>
     </row>
     <row r="3">
-      <c r="A3" s="2" t="n">
+      <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
+          <t>012442</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>永赢稳健增长一年持有期混合E</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>23.62</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>24.47</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>1.25</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.2952</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="D3" t="n">
-        <v>1.04</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
+          <t>001150</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>融通互联网传媒灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>11.82</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>90.73</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.24</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.2648</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>010560</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>永赢稳健增利18个月持有期混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>5.25</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>22.28</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>1.20</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0630</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="D4" t="n">
-        <v>0.96</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>013595</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>永赢稳健增利18个月持有期混合E</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>5.25</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>22.28</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>1.20</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0630</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
         <v>5</v>
       </c>
-      <c r="D5" t="n">
-        <v>0.98</v>
-      </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/数据整理/stocks/A股/科创板/688776-国光电气.xlsx
+++ b/数据整理/stocks/A股/科创板/688776-国光电气.xlsx
@@ -7,10 +7,11 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -454,7 +455,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -485,14 +486,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>4</v>
+        <v>45</v>
       </c>
       <c r="D2" t="n">
-        <v>0.88</v>
+        <v>7.55</v>
       </c>
     </row>
     <row r="3">
@@ -501,14 +502,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D3" t="n">
-        <v>1.04</v>
+        <v>0.88</v>
       </c>
     </row>
     <row r="4">
@@ -517,14 +518,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D4" t="n">
-        <v>0.96</v>
+        <v>1.04</v>
       </c>
     </row>
     <row r="5">
@@ -533,13 +534,29 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>4</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.96</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2021-Q3</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>5</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>0.98</v>
       </c>
     </row>
@@ -549,6 +566,1770 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H46"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>011056</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>博时汇兴回报一年持有期灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>96.44</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>52.92</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.19</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.1120</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>012406</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>永赢长远价值混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>43.76</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.07</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.01</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.3172</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>011184</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>东方阿尔法招阳混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>6.44</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>89.08</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>6.55</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.4218</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>002669</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>华商万众创新灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>11.95</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>88.72</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.20</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.3824</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>000654</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>华商新锐产业灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>11.41</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>84.43</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.21</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.3663</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>506001</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>万家科创板 2 年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>7.10</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>96.80</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.95</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.3514</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>005358</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>东方阿尔法精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>3.47</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>93.91</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>9.75</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.3383</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>012442</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>永赢稳健增长一年持有期混合E</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>9.56</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>26.04</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2.36</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.2256</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>014185</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>招商专精特新股票A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>3.62</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>81.87</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.90</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.1774</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>001749</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>招商中国机遇股票</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>3.89</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>92.94</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.84</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.1494</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>004423</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>华商研究精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>4.21</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>86.84</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.22</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.1356</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>001173</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>中欧瑾和灵活配置混合 - A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>2.26</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>92.00</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>5.81</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.1313</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>014186</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>招商专精特新股票C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>2.63</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>81.87</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>4.90</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.1289</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>501099</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>平安科技创新3年封闭运作灵活配置混合型</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>2.94</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>87.70</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>4.35</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.1279</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>012491</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>华商核心引力混合A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>3.90</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>85.96</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>3.21</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.1252</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>011346</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>淳厚鑫淳一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>4.81</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>69.72</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>2.56</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.1231</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>012407</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>永赢长远价值混合C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>3.91</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>93.07</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>3.01</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.1177</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>009932</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>永赢稳健增长一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>4.93</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>26.04</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>2.36</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.1163</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>009008</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>平安科技创新混合A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>2.75</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>85.99</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>3.43</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0943</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>008961</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>华商科技创新混合</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>2.52</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>86.93</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>3.21</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0809</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>015071</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>鑫元专精特新混合A</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>2.65</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>74.01</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>2.46</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0652</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>005359</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>东方阿尔法精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>93.91</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>9.75</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0566</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>012454</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>淳厚鑫悦混合A</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>2.06</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>75.61</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>2.59</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0534</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>860052</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>光大阳光启明星创新驱动主题混合B</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>1.63</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>90.71</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>3.17</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0517</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>860053</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>光大阳光启明星创新驱动主题混合C</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>1.21</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>90.71</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>3.17</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0384</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>009009</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>平安科技创新混合C</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>1.03</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>85.99</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>3.43</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0353</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>002103</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>招商康泰灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>1.53</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>38.87</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>2.29</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0350</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>011369</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>华商均衡成长混合A</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>1.09</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>88.94</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>3.20</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0349</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>011370</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>华商均衡成长混合C</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>0.63</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>88.94</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>3.20</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0202</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>005493</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>鑫元价值精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>76.82</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>3.34</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0184</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>012455</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>淳厚鑫悦混合C</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>0.68</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>75.61</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>2.59</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0176</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>700004</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>平安灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>0.36</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>77.41</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>4.30</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0155</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>012492</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>华商核心引力混合C</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>0.42</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>85.96</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>3.21</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0135</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>001174</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>中欧瑾和灵活配置混合 - C</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>0.23</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>92.00</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>5.81</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0134</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>860016</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>光大阳光启明星创新驱动主题混合A</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>0.42</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>90.71</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>3.17</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0133</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>007903</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>长城量化小盘股票</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>0.86</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>91.70</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>1.24</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0107</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>015078</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>平安灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>77.41</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>4.30</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0086</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>011185</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>东方阿尔法招阳混合C</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>89.08</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>6.55</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0066</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>015072</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>鑫元专精特新混合C</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>74.01</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>2.46</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0062</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>010663</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>长江均衡成长混合A</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>81.80</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>2.97</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0059</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>016069</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>华商研究精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>86.84</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>3.22</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0058</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>006084</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>融通研究优选混合</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>77.79</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>3.93</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0028</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>010664</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>长江均衡成长混合C</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>81.80</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>2.97</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0015</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>005494</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>鑫元价值精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>76.82</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>3.34</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.0003</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>016051</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>华商万众创新灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>88.72</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>3.20</t>
+        </is>
+      </c>
+      <c r="G46" t="n">
+        <v>0</v>
+      </c>
+      <c r="H46" t="n">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -756,7 +2537,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -888,7 +2669,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1096,7 +2877,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/数据整理/stocks/A股/科创板/688776-国光电气.xlsx
+++ b/数据整理/stocks/A股/科创板/688776-国光电气.xlsx
@@ -7,11 +7,12 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -455,7 +456,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -486,14 +487,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q3</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>45</v>
+        <v>19</v>
       </c>
       <c r="D2" t="n">
-        <v>7.55</v>
+        <v>3.65</v>
       </c>
     </row>
     <row r="3">
@@ -502,14 +503,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>4</v>
+        <v>45</v>
       </c>
       <c r="D3" t="n">
-        <v>0.88</v>
+        <v>7.55</v>
       </c>
     </row>
     <row r="4">
@@ -518,14 +519,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D4" t="n">
-        <v>1.04</v>
+        <v>0.88</v>
       </c>
     </row>
     <row r="5">
@@ -534,14 +535,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D5" t="n">
-        <v>0.96</v>
+        <v>1.04</v>
       </c>
     </row>
     <row r="6">
@@ -550,13 +551,29 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>4</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.96</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>2021-Q3</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="C7" t="n">
         <v>5</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D7" t="n">
         <v>0.98</v>
       </c>
     </row>
@@ -566,6 +583,784 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H20"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>001933</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华商新兴活力灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>25.00</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>90.39</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.99</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.9975</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>010550</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>华商双擎领航混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>12.41</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>90.98</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.99</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.4952</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>013886</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>华商新能源汽车混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>9.05</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>89.00</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.00</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.3620</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>506001</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>万家科创板 2 年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>6.18</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>95.02</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.71</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.2911</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>005358</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>东方阿尔法精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>3.45</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>94.28</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>7.36</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.2539</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>010616</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>国金自主创新混合C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>3.24</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>94.49</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>5.54</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.1795</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>162207</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>泰达宏利效率优选混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>4.72</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>68.20</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.65</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.1723</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>010615</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>国金自主创新混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>3.08</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>94.49</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>5.54</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.1706</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>013887</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>华商新能源汽车混合C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>3.70</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>89.00</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.00</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.1480</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>014185</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>招商专精特新股票A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>3.30</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>87.72</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.76</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.1241</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>014350</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>华商卓越成长一年持有混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>3.05</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>93.10</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.84</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.1171</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>014186</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>招商专精特新股票C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>2.50</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>87.72</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.76</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0940</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>009467</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>红土创新科技创新3个月定开混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>1.62</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>88.86</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.51</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0569</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>013250</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>红土创新智能制造混合</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>1.19</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>90.41</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>4.76</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0566</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>010375</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>国金鑫悦经济新动能混合A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.89</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>92.34</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>5.30</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0472</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>005359</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>东方阿尔法精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.57</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>94.28</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>7.36</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0420</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>010376</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>国金鑫悦经济新动能混合C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.43</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>92.34</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>5.30</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0228</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>013173</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>红土创新科技创新3个月定开混合C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.43</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>88.86</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>3.51</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0151</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>014351</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>华商卓越成长一年持有混合C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>93.10</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>3.84</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0038</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2329,7 +3124,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2537,7 +3332,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2669,7 +3464,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2877,7 +3672,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
